--- a/_posts/2021-02-13-dataviz-makeover-02/data/2_advantages.xlsx
+++ b/_posts/2021-02-13-dataviz-makeover-02/data/2_advantages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awljiang\blog\_posts\2021-02-13-dataviz-makeover-02\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34826BB1-943C-45E7-86EB-F871B1425B83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791C8B8F-8127-4681-93B0-7F41DAC74AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D8152D1-7E5A-4BDC-BFBC-3BEA610F9AAA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>S/N</t>
   </si>
@@ -41,25 +41,28 @@
     <t>Advantages</t>
   </si>
   <si>
-    <t>For easy reading, two charts will be created to differentiate between the two broad topics i.e. "Getting Covid" and "Getting vaccinated".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes survey findings on other questions instead of just on "Vac 1". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes additional filters which can be used for more in-depth analysis. </t>
-  </si>
-  <si>
     <t xml:space="preserve">For easy reading, colour of sentiment scores follow a theme i.e. blue theme for agree, red for disagree and grey for neutral. </t>
   </si>
   <si>
-    <t xml:space="preserve">Results (bar chart) is included in the tooltip and users can hover around the map to see the findings without the need to filter by country. In addition, the map also acts as a filter control. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The "Sort by" filter allows users to sort the Gantt chart according to their preference. For example, users may want to know among the questions, which had the highest disagreement view. </t>
   </si>
   <si>
     <t>Source of data is indicated and users can easily know where the data is from and download it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes survey findings on other questions instead of just on "Vac 1". In addition, it shows the exact question asked in the survey for users to see. </t>
+  </si>
+  <si>
+    <t>Use different type of charts to represent the sentiments i.e. Gantt chart and Proportion chart. For the proportion chart, confidence interval are also included to understand if there are significant difference between the proportions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes option for users to select between 95% and 99% confidence interval. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional filters included for deeper analysis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users have the option to choose which sentiment proportion chart they would like to see. </t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E4E8F-CD37-44C1-A218-32FECD557176}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -470,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -478,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -486,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -494,12 +497,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_posts/2021-02-13-dataviz-makeover-02/data/2_advantages.xlsx
+++ b/_posts/2021-02-13-dataviz-makeover-02/data/2_advantages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\awljiang\blog\_posts\2021-02-13-dataviz-makeover-02\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791C8B8F-8127-4681-93B0-7F41DAC74AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1AB265-C933-4B76-8FBC-E29FD1425C73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D8152D1-7E5A-4BDC-BFBC-3BEA610F9AAA}"/>
   </bookViews>
@@ -41,28 +41,28 @@
     <t>Advantages</t>
   </si>
   <si>
-    <t xml:space="preserve">For easy reading, colour of sentiment scores follow a theme i.e. blue theme for agree, red for disagree and grey for neutral. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The "Sort by" filter allows users to sort the Gantt chart according to their preference. For example, users may want to know among the questions, which had the highest disagreement view. </t>
   </si>
   <si>
     <t>Source of data is indicated and users can easily know where the data is from and download it.</t>
   </si>
   <si>
-    <t xml:space="preserve">Includes survey findings on other questions instead of just on "Vac 1". In addition, it shows the exact question asked in the survey for users to see. </t>
-  </si>
-  <si>
     <t>Use different type of charts to represent the sentiments i.e. Gantt chart and Proportion chart. For the proportion chart, confidence interval are also included to understand if there are significant difference between the proportions.</t>
   </si>
   <si>
-    <t xml:space="preserve">Includes option for users to select between 95% and 99% confidence interval. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional filters included for deeper analysis. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Users have the option to choose which sentiment proportion chart they would like to see. </t>
+    <t xml:space="preserve">Includes survey findings on other questions instead of just on "Vac 1" so that users can have a broader view on the sentiments of respondents. In addition, it shows the exact question asked in the survey for users to see. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For easy reading, suggest that the colour of sentiment scores follow a theme i.e. blue theme for agree, red for disagree and grey for neutral. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional filters such as Age, Gender, Household size, number of children in household and employment status will be included as additional features for deeper analysis by users. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes option for users to select between 95% and 99% confidence interval, depending on their use case. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users have the option to choose which sentiment (i.e. strongly agree/ agree/ neutral/ disagree/ strongly disagree) proportion chart they would like to see, instead of only giving users the option of seeing the strongly agree chart. </t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -465,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -497,7 +497,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -505,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
